--- a/ОписаниеИзменений/Описание изменений по форме/0001_Доработки документов для отражения в них информации о распределении.xlsx
+++ b/ОписаниеИзменений/Описание изменений по форме/0001_Доработки документов для отражения в них информации о распределении.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\IGS_BSO\ОписаниеИзменений\Описание изменений по форме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40458E52-0FA4-49BA-842D-87D194D9F5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A444F2-F137-4510-AF73-1091C746EEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Дата изменения</t>
   </si>
@@ -84,18 +84,6 @@
     <t>Значение</t>
   </si>
   <si>
-    <t>игсДатаНачала - новый реквизит</t>
-  </si>
-  <si>
-    <t>игсОбъектРаспределения - новый реквизит</t>
-  </si>
-  <si>
-    <t>игсДатаОкончания - новый реквизит</t>
-  </si>
-  <si>
-    <t>Модуль</t>
-  </si>
-  <si>
     <t xml:space="preserve">ОбработкаПроверкиЗаполнения() - процедура расширена проверкой для ТЧ "Услуги"
 			</t>
   </si>
@@ -129,13 +117,7 @@
     <t>Подсистема:  игсМодифицированныеОбъектыМетаданных</t>
   </si>
   <si>
-    <t>включены объекты: Документ.ПоступлениеТоваровУслуг</t>
-  </si>
-  <si>
     <t>ФормаДокументаОбщая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">игсУслугиОбъектРаспределенияНачалоВыбора() - вызывает кастомный обработчик из общего модуля </t>
   </si>
   <si>
     <t xml:space="preserve">ОбработкаОповещения() - добавлен обработчик события для выбора ОР
@@ -152,6 +134,30 @@
   </si>
   <si>
     <t>Доработка документа "Поступление товаров и услуг" для указания информации о распределении</t>
+  </si>
+  <si>
+    <t>МодульОбъекта</t>
+  </si>
+  <si>
+    <t>игсОбъектРаспределения - новый реквизит в табличной части "Товары"</t>
+  </si>
+  <si>
+    <t>игсДатаНачала - новый реквизит в табличной части "Товары"</t>
+  </si>
+  <si>
+    <t>игсДатаОкончания - новый реквизит в табличной части "Товары"</t>
+  </si>
+  <si>
+    <t>Включены объекты: Документ.ПоступлениеТоваровУслуг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">игсУслугиОбъектРаспределенияНачалоВыбора() - новая процедура, вызывает кастомный обработчик из общего модуля </t>
+  </si>
+  <si>
+    <t>игсНастроитьФорму() - новая процедура расширена программным выводом на форму новых реквизитов ТЧ "Услуги", вызывает игсУстановитьУсловноеОформление()</t>
+  </si>
+  <si>
+    <t>игсУстановитьУсловноеОформление() - новая серверная процедура добавляет новые строки для условного оформления, они ограничивают доступность строк из тч</t>
   </si>
 </sst>
 </file>
@@ -332,28 +338,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -366,8 +361,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,10 +703,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="23">
         <v>45838</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -729,10 +735,10 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -761,10 +767,10 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>37</v>
+      <c r="B4" s="25" t="s">
+        <v>31</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -793,10 +799,10 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>38</v>
+      <c r="B5" s="25" t="s">
+        <v>32</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -825,10 +831,10 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -857,10 +863,10 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="21">
         <v>1</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -889,8 +895,8 @@
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -919,10 +925,10 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -951,10 +957,10 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>39</v>
+      <c r="B10" s="17" t="s">
+        <v>33</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -983,10 +989,10 @@
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>40</v>
+      <c r="B11" s="13" t="s">
+        <v>34</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1040,11 +1046,11 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1103,15 +1109,15 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1137,13 +1143,13 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1169,13 +1175,13 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
       <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1202,12 +1208,12 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="6"/>
@@ -1234,12 +1240,12 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="6"/>
@@ -1266,12 +1272,12 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1298,12 +1304,12 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1330,12 +1336,12 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1362,12 +1368,12 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1394,12 +1400,12 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1426,12 +1432,12 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1458,12 +1464,12 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1490,12 +1496,12 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>26</v>
+      <c r="C27" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1522,12 +1528,12 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>35</v>
+      <c r="C28" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1554,12 +1560,12 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>31</v>
+      <c r="C29" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1587,13 +1593,13 @@
     </row>
     <row r="30" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>33</v>
+      <c r="C30" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -28893,18 +28899,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A15:A29"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
